--- a/doc/機能一覧_チーム源田.xlsx
+++ b/doc/機能一覧_チーム源田.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\研修\D3開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C101DBD-E3C2-4564-BD6E-76024426A098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8573EBD-0455-4E70-86E3-0D0A89D6249A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -144,17 +144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規登録</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IDの入力</t>
     <rPh sb="3" eb="5">
       <t>ニュウリョク</t>
@@ -169,53 +158,399 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動</t>
-    <rPh sb="0" eb="2">
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボタンクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページへ移動</t>
+    <rPh sb="7" eb="9">
       <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力</t>
-    <rPh sb="0" eb="2">
+    <t>「IDをお忘れの方はこちら」をクリック</t>
+    <rPh sb="5" eb="6">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID忘れ専用のページに移動</t>
+    <rPh sb="2" eb="3">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「PWをお忘れの方はこちら」をクリック</t>
+    <rPh sb="5" eb="6">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW忘れ専用ページへ移動</t>
+    <rPh sb="2" eb="3">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW確認のため再度入力</t>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>サイドニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号入力</t>
+    <rPh sb="0" eb="6">
+      <t>シャインバンゴウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問内容選択</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問の回答を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メールを飛ばす</t>
-    <rPh sb="4" eb="5">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>送信</t>
+    <t>登録ボタンクリック</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面へ移動</t>
+    <rPh sb="0" eb="6">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信ボタンクリック</t>
     <rPh sb="0" eb="2">
       <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トップページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規投稿表示</t>
-    <rPh sb="0" eb="6">
-      <t>シンキトウコウヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示</t>
-    <rPh sb="0" eb="2">
+    <t>ログイン画面へ戻るをクリック</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面へ移動</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID入力</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問回答画面へ移動</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カイトウガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーのログイン機能</t>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの新規登録機能</t>
+    <rPh sb="5" eb="9">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブの切り替え</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインと新規登録切り替え</t>
+    <rPh sb="5" eb="9">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID忘れ対策機能</t>
+    <rPh sb="2" eb="3">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW忘れ対策機能</t>
+    <rPh sb="2" eb="3">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問回答機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="9">
+      <t>シツモンカイトウキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秘密の質問内容表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ナイヨウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答入力</t>
+    <rPh sb="0" eb="4">
+      <t>カイトウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW再設定画面またはID表示画面に移動</t>
+    <rPh sb="2" eb="5">
+      <t>サイセッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ヒョウジガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW再設定機能</t>
+    <rPh sb="2" eb="7">
+      <t>サイセッテイキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面へ移動</t>
+    <rPh sb="1" eb="2">
+      <t>ニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規PWの入力</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面へ戻る</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了お知らせ機能</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクカンリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しく登録したものを表示</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般ユーザーメイン機能</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規投稿（最新5件まで）</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリアイコンクリック</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -229,9 +564,291 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>掲示板</t>
+    <t>設定アイコン</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定画面へ移動</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドアアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト（ログイン画面へ移動）</t>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面上部に確認アラートを出す</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンジョウブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理ユーザーメイン機能</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般と管理者モード切替</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キリカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報一覧ボタンクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報一覧ページに移動</t>
+    <rPh sb="0" eb="4">
+      <t>ツウホウイチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報件数表示</t>
+    <rPh sb="0" eb="6">
+      <t>ツウホウケンスウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報された件数を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者モード選択時のみ</t>
     <rPh sb="0" eb="3">
-      <t>ケイジバン</t>
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定機能</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストの入力</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタン（フリーワード・タグ・カテゴリー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ画面へ戻る</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ出す</t>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト（ログイン画面へ移動）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDを入力</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付与ボタンクリック</t>
+    <rPh sb="0" eb="2">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解除ボタンクリック</t>
+    <rPh sb="0" eb="2">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報一覧機能</t>
+    <rPh sb="0" eb="6">
+      <t>ツウホウイチランキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報されたものの一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿内容が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報されたものにつく</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>！マーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンクリック</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除される</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧表示の切り替え</t>
+  </si>
+  <si>
+    <t>ページ移動（7件目から次のページ）</t>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板機能</t>
+    <rPh sb="0" eb="5">
+      <t>ケイジバンキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリ表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -243,101 +860,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メアドを入力</t>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDとPWがあってたら移動する</t>
-    <rPh sb="11" eb="13">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設定ページへ</t>
-    <rPh sb="0" eb="2">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインページへ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規作成画面</t>
+    <t>新規作成ボタンクリック</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成画面へ移動</t>
     <rPh sb="0" eb="6">
       <t>シンキサクセイガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿完了</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規作成画面表示</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返信画面表示</t>
-    <rPh sb="0" eb="4">
-      <t>ヘンシンガメン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返信画面表示</t>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿一覧表示</t>
     <rPh sb="0" eb="6">
-      <t>ヘンシンガメンヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本文入力</t>
-    <rPh sb="0" eb="2">
-      <t>ホンブン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグ設定</t>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
+      <t>トウコウイチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規投稿作成機能</t>
+    <rPh sb="0" eb="8">
+      <t>シンキトウコウサクセイキノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -349,40 +898,220 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投稿完了</t>
+    <t>タグの入力</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文を入力</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ボタンクリック</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信機能</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除する</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿される</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報ボタンクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通報する</t>
+    <rPh sb="0" eb="2">
+      <t>ツウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ表示</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容表示</t>
     <rPh sb="0" eb="4">
-      <t>トウコウカンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除ボタンクリック</t>
+      <t>ナイヨウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信内容入力</t>
+    <rPh sb="0" eb="6">
+      <t>ヘンシンナイヨウニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信内容を投稿</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシンナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×クリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板に戻る</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中庭掲示板</t>
+    <rPh sb="0" eb="5">
+      <t>ナカニワケイジバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古川楓</t>
+    <rPh sb="0" eb="3">
+      <t>フルカワカエデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除クリック</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投稿削除</t>
+    <t>飛行機ボタンクリック</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>匿名か実名か選択</t>
+    <rPh sb="0" eb="2">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジツメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信時刻</t>
     <rPh sb="0" eb="4">
-      <t>トウコウサクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通報ボタンクリック</t>
-    <rPh sb="0" eb="2">
-      <t>ツウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者に通知</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ツウチ</t>
+      <t>ヘンシンジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実名または匿名動物</t>
+    <rPh sb="0" eb="2">
+      <t>ジツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信内容</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンシンナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文投稿者名</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>トウコウシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>匿名か実名を表示</t>
+    <rPh sb="0" eb="2">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジツメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本文投稿者名</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>トウコウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -497,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,13 +1251,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,19 +1604,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I36"/>
+  <dimension ref="B2:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.26953125" customWidth="1"/>
     <col min="2" max="2" width="6.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" customWidth="1"/>
     <col min="6" max="6" width="19.453125" customWidth="1"/>
     <col min="7" max="7" width="12.90625" customWidth="1"/>
     <col min="8" max="8" width="33.90625" style="1" customWidth="1"/>
@@ -891,37 +1626,45 @@
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="11">
+        <v>45084</v>
+      </c>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -959,13 +1702,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -977,10 +1720,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -991,14 +1734,12 @@
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1011,10 +1752,10 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1027,30 +1768,26 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1061,12 +1798,14 @@
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1079,10 +1818,10 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1095,10 +1834,10 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1109,14 +1848,12 @@
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1129,10 +1866,10 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1145,10 +1882,10 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1161,10 +1898,10 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1177,10 +1914,10 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1192,13 +1929,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1211,10 +1948,10 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1227,10 +1964,10 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1241,12 +1978,14 @@
       <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1257,14 +1996,12 @@
       <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1277,10 +2014,10 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1291,12 +2028,14 @@
       <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1309,10 +2048,10 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1324,8 +2063,12 @@
         <v>23</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
@@ -1336,8 +2079,12 @@
         <v>24</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
@@ -1347,9 +2094,15 @@
       <c r="B32" s="2">
         <v>25</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
@@ -1360,8 +2113,12 @@
         <v>26</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
@@ -1372,8 +2129,12 @@
         <v>27</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
@@ -1384,8 +2145,12 @@
         <v>28</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
@@ -1395,13 +2160,1310 @@
       <c r="B36" s="2">
         <v>29</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>33</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>37</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>42</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>43</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <v>44</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>45</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>46</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <v>47</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
+        <v>48</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <v>49</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <v>50</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
+        <v>51</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="2">
+        <v>52</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="2">
+        <v>53</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="2">
+        <v>54</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="2">
+        <v>55</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="2">
+        <v>56</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <v>57</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
+        <v>60</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <v>61</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
+        <v>62</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <v>63</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <v>64</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="2">
+        <v>65</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
+        <v>66</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="2">
+        <v>67</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
+        <v>68</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="2">
+        <v>69</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="2">
+        <v>70</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="2">
+        <v>71</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="2">
+        <v>72</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="2">
+        <v>73</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="2">
+        <v>74</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="2">
+        <v>75</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="2">
+        <v>76</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="2">
+        <v>77</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="2">
+        <v>78</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="2">
+        <v>79</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" s="2">
+        <v>80</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="2">
+        <v>81</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" s="2">
+        <v>82</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="2">
+        <v>83</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" s="2">
+        <v>84</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="2">
+        <v>85</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="2">
+        <v>86</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B97" s="2">
+        <v>87</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B98" s="2">
+        <v>88</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99" s="2">
+        <v>89</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="2">
+        <v>90</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" s="2">
+        <v>91</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102" s="2">
+        <v>92</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B103" s="2">
+        <v>93</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104" s="2">
+        <v>94</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B105" s="2">
+        <v>95</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B106" s="2">
+        <v>96</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" s="2">
+        <v>97</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" s="2">
+        <v>98</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" s="2">
+        <v>99</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="2">
+        <v>100</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" s="2">
+        <v>101</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B112" s="2">
+        <v>102</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B113" s="2">
+        <v>103</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114" s="2">
+        <v>104</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B115" s="2">
+        <v>105</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B116" s="2">
+        <v>106</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B117" s="2">
+        <v>107</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B118" s="2">
+        <v>108</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B119" s="2">
+        <v>109</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B120" s="2">
+        <v>110</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B121" s="2">
+        <v>111</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="2">
+        <v>112</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1412,6 +3474,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
